--- a/df_CEP.xlsx
+++ b/df_CEP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/Documents/github/2A0_python_basic_course_ksp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EABA4E7A-4D2E-864E-B0EC-944D63766F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{487D2922-F9D9-074D-A0DD-A0260FBB73E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="2660" windowWidth="26780" windowHeight="16340"/>
+    <workbookView xWindow="3520" yWindow="2660" windowWidth="27680" windowHeight="12860"/>
   </bookViews>
   <sheets>
     <sheet name="df_CEP" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,6 +324,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -753,9 +762,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1114,550 +1135,556 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="8" width="25.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="21">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="105">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="100" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" ht="100" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" ht="100" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="42">
+      <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="42">
+      <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
         <v>0</v>
       </c>
     </row>
